--- a/OPD/Таблица организационно-правовых форм.xlsx
+++ b/OPD/Таблица организационно-правовых форм.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Организационно-правовая форма</t>
   </si>
@@ -69,15 +69,24 @@
     <t xml:space="preserve">В пределах вкладов</t>
   </si>
   <si>
-    <t xml:space="preserve">Открытой акционерное общество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 базовых величин</t>
+    <t xml:space="preserve">Открытой акционерное общество (ОАО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 400 базовых величин</t>
   </si>
   <si>
     <t xml:space="preserve">от 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Общее собрание акционеров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дивиленды по акциям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В пределах стоимости акций</t>
+  </si>
+  <si>
     <t xml:space="preserve">Полное товарищество</t>
   </si>
   <si>
@@ -118,6 +127,15 @@
   </si>
   <si>
     <t xml:space="preserve">Собственник всем своим имуществом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрытое акционерное общество (ЗАО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 100 базовых величин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от 2 до 50</t>
   </si>
 </sst>
 </file>
@@ -809,7 +827,7 @@
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="30.8828125"/>
     <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="19.57421875"/>
     <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="25.8515625"/>
-    <col customWidth="1" min="5" max="5" style="1" width="31.28125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="28.37109375"/>
     <col customWidth="1" min="6" max="6" style="1" width="24.00390625"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="23.57421875"/>
     <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="30.421875"/>
@@ -890,29 +908,37 @@
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="28.5">
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -921,35 +947,35 @@
         <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="99.75">
       <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="42.75">
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -958,26 +984,40 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
+    <row r="9" ht="28.5">
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" s="7"/>

--- a/OPD/Таблица организационно-правовых форм.xlsx
+++ b/OPD/Таблица организационно-правовых форм.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Организационно-правовая форма</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t xml:space="preserve">от 2 до 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью (ООО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее собрание учредителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с дополнительой ответственностью (ОДО)</t>
   </si>
 </sst>
 </file>
@@ -824,13 +833,11 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="2.8515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="30.8828125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="19.57421875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="25.8515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="28.37109375"/>
-    <col customWidth="1" min="6" max="6" style="1" width="24.00390625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="23.57421875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="30.421875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="31.140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="19.00390625"/>
+    <col bestFit="1" customWidth="1" min="4" max="6" style="1" width="20.82421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="33.40234375"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="30.8828125"/>
     <col min="9" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
@@ -950,7 +957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="99.75">
+    <row r="7" ht="57.600000000000001" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1019,14 +1026,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+    <row r="10" ht="28.5">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="29.399999999999999" customHeight="1">
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/OPD/Таблица организационно-правовых форм.xlsx
+++ b/OPD/Таблица организационно-правовых форм.xlsx
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,46 +241,126 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color theme="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -290,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,6 +397,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,206 +961,206 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="28.5">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.5">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="28.5">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" ht="57.600000000000001" customHeight="1">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" ht="42.75">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="28.5">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="28.5">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="29.399999999999999" customHeight="1">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
